--- a/EnvNP_Malaysia.xlsx
+++ b/EnvNP_Malaysia.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/cetdem.org.my/']</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/p/EPSM-Environmental-Protection-Society-Malaysia-100069118026385/']</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.linkedin.com/company/global-environment-centre', 'https://www.facebook.com/globalenvironmentcentre/', 'https://www.instagram.com/globalenvironmentcentre/?hl=en', 'https://www.youtube.com/channel/UCFQNBgr41VZ9z5wAQ16cQpA']</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/MalaysianNatureSociety.Official/', 'https://www.instagram.com/malaysiannaturesociety/']</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/mydclimate/', 'https://www.facebook.com/beliaprihatin.my/', 'https://twitter.com/mydclimate?lang=en', 'https://www.facebook.com/mgtc.my/videos/perubahan-iklim-apa-kata-belia/964962354105712/', 'https://www.facebook.com/MYDclimate/']</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://twitter.com/WWFMy?ref_src=twsrc%5Egoogle%7Ctwcamp%5Eserp%7Ctwgr%5Eauthor', 'https://www.facebook.com/wwfmy/', 'https://www.linkedin.com/company/wwf-malaysia', 'https://www.instagram.com/wwfmy/?hl=en']</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/crcbox/', 'https://www.instagram.com/crcbox/?hl=en', 'https://www.facebook.com/crcbox/posts/locate-our-crc-yellow-bin-with-waze-now-httpwwwcrcboxorglocations-to-date-there-/2609108582521056/', 'https://www.facebook.com/crcbox/videos/you-can-make-a-difference-in-your-community-today-by-donating-your-unused-or-unw/660792291186110/']</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/groups/MSMS1975/', 'https://www.linkedin.com/company/malaysian-society-of-marine-sciences-msms']</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/WIMalaysia/', 'https://www.instagram.com/wetlandsinternationalmy/?hl=en', 'https://twitter.com/wetlandsintmy?lang=en', 'https://www.linkedin.com/company/wetlands-international-malaysia']</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/waterwatchpenang/', 'https://twitter.com/wwpenang?lang=en']</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/FriendsoftheEarthMalaysia/']</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/TrEES.Malaysia/', 'https://www.flickr.com/people/treateveryenvironmentspecial/']</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/zerowastemalaysia.official/', 'https://www.instagram.com/zerowastemalaysia_official/?hl=en', 'https://www.facebook.com/groups/zerowastemalaysia/']</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/sabahwetlandsconservationsociety/']</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/rimbailmuum/', 'https://www.instagram.com/rimbailmuum/?hl=en']</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/saveourseahorse/', 'https://www.instagram.com/saveourseahorsesmalaysia/?hl=en']</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/reefcheckmalaysia/', 'https://twitter.com/ReefCheckMY?ref_src=twsrc%5Egoogle%7Ctwcamp%5Eserp%7Ctwgr%5Eauthor', 'https://www.instagram.com/reefcheckmalaysia/']</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/groups/81975861894/?locale=ms_MY', 'https://www.instagram.com/pertubuhan_amal_seri_sinar/']</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/rootsandshootsmy/', 'https://www.instagram.com/rootsandshootsmy/?hl=en', 'https://www.youtube.com/c/RootsShootsMalaysia', 'https://www.linkedin.com/company/roots-shoots-malaysia']</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/BambusaFoundation/', 'https://www.instagram.com/bambusafoundation/?r=nametag', 'https://www.youtube.com/channel/UCV0Nwk3mKktMb4fvXEGEMZg']</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/greenwasteselangor.gws/', 'https://twitter.com/fmtoday/status/1746360684949180538', 'https://www.facebook.com/greenwaste.selangor.1/', 'https://www.instagram.com/reel/C2EDWQ1JPWN/']</t>
         </is>
       </c>
     </row>
